--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F95A16-3EA3-41F6-B010-6382851905DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -26,8 +27,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,90 +51,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>PERIODS</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+  <si>
+    <t>dont know yet</t>
+  </si>
+  <si>
+    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Period Highlight:</t>
+  </si>
+  <si>
+    <t>Plan Duration</t>
+  </si>
+  <si>
+    <t>Actual Start</t>
   </si>
   <si>
     <r>
@@ -203,7 +149,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
+    <t>ACTIVITY</t>
   </si>
   <si>
     <t>PLAN START</t>
@@ -221,50 +167,188 @@
     <t>PERCENT COMPLETE</t>
   </si>
   <si>
-    <t>Actual Start</t>
-  </si>
-  <si>
-    <t>Plan Duration</t>
-  </si>
-  <si>
-    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
-  </si>
-  <si>
-    <t>Activity 27</t>
-  </si>
-  <si>
-    <t>Activity 28</t>
-  </si>
-  <si>
-    <t>Activity 29</t>
-  </si>
-  <si>
-    <t>Activity 30</t>
-  </si>
-  <si>
-    <t>Activity 31</t>
-  </si>
-  <si>
-    <t>Activity 32</t>
-  </si>
-  <si>
-    <t>Activity 33</t>
-  </si>
-  <si>
-    <t>Activity 34</t>
-  </si>
-  <si>
-    <t>Activity 35</t>
-  </si>
-  <si>
-    <t>Project Title</t>
+    <t>PERIODS</t>
+  </si>
+  <si>
+    <t>1. Project Plan</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.1 Project Overview</t>
+  </si>
+  <si>
+    <t>1 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.2 Work Breakdown Structure</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.3 Activity Definition and Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.4 Gantt Chart</t>
+  </si>
+  <si>
+    <t>2. Software Design Document</t>
+  </si>
+  <si>
+    <t>19 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.1 System Vision Statement</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1.1 Background </t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1.2 Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1.3 Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.2 Requirements</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.1 User Requirements</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.2 Software Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.3 Use Case Diagram</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.4 Use Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.3 Software Design and System Components </t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.3.1 Software Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.3.2 System Components</t>
+  </si>
+  <si>
+    <t>9 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.3.2.1 Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.3.2.2 Data Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.3.2.3 Detailed design</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.4 User Interface Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.4.1 Structural Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.4.2 Visual Design</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>3 Software Implementation</t>
+  </si>
+  <si>
+    <t>13 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.1 Design Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.1 UI Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.2 Code Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.1 Landing Page Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.2 Matplotlib Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.3 Tkinter Code/wxPython</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.4 Pandas Code</t>
+  </si>
+  <si>
+    <t>4 Software Testing Report</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.1 Testing Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.2 Ongoing testing</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.3 User Manual</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>5 Executive Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.1 Analysis and Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.2 Git_log</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>Project Completion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -294,12 +378,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -364,8 +442,34 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,8 +511,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B79C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAADB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE9AF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6E8FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -493,19 +681,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -514,44 +739,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,28 +786,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,13 +813,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -615,8 +837,104 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -624,77 +942,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -811,6 +1084,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -822,19 +1123,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -948,6 +1305,139 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -961,6 +1451,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,147 +1683,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO39"/>
+  <dimension ref="A1:BO46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
-    <col min="42" max="42" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="60" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="15">
+        <v>2</v>
+      </c>
+      <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="1:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1511,494 +2005,884 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+    </row>
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+    </row>
+    <row r="21" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="6" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="6" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="6" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+    </row>
+    <row r="23" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+    </row>
+    <row r="24" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="6" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="6" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+    </row>
+    <row r="26" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8">
+      <c r="C26" s="6"/>
+      <c r="D26" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+    </row>
+    <row r="27" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16"/>
+    </row>
+    <row r="28" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+    </row>
+    <row r="29" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+    </row>
+    <row r="30" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+    </row>
+    <row r="31" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+    </row>
+    <row r="32" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+    </row>
+    <row r="33" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+    </row>
+    <row r="34" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+    </row>
+    <row r="35" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+    </row>
+    <row r="36" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+    </row>
+    <row r="37" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="16"/>
+      <c r="AT37" s="16"/>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="16"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
+      <c r="BC37" s="16"/>
+    </row>
+    <row r="38" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="16"/>
+    </row>
+    <row r="39" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="16"/>
+      <c r="AX40" s="16"/>
+      <c r="AY40" s="16"/>
+      <c r="AZ40" s="16"/>
+      <c r="BA40" s="16"/>
+      <c r="BB40" s="16"/>
+      <c r="BC40" s="16"/>
+    </row>
+    <row r="41" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="16"/>
+      <c r="BE42" s="16"/>
+      <c r="BF42" s="16"/>
+    </row>
+    <row r="43" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG43" s="16"/>
+    </row>
+    <row r="44" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:BO5 J6:BO6 O7:BO9 K7 M7:M9 H7:H8 H9:I10 AC10:BO10 H11:K12 M11:BO12 H13:L15 N13:BO14 O16:BO16 H16:M16 H17:N17 P17:BO17 H18:O18 Q18:BO18 R19:BO19 AA20:BO20 H19:P21 R21:BO21 AA22:BO22 H22:Q23 T23:BO23 H24:S24 V24:BO24 AA25:BO25 H25:U25 K10 AF26:BO26 H26:Z27 AB27:BO27 H28:AA28 AF28:BO28 AS29:BO29 H29:AE31 AI30:BO31 P15:BO15 AS32:BO32 H32:AH33 AM33:BO33 H34:AK34 AO34:BO34 H35:AM35 AQ35:BO35 H36:AO36 AS36:BO36 H39:BO39 H37:AR38 AX38:BO38 H41:BO41 H40:AV40 BD40:BO40 BD37:BO37 H44:BO46 H42:BC42 BG42:BO42 H43:BF43 BH43:BO43">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>I$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>I$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2 N7:N9 J9:J10 L7:L8" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 K9:L9 V25:Z25 J7:J8 I6:I7 K8 L10:AB10 L11:L12 M13:M15 N15:N16 O17 P18 Q19:Q21 R20:Z20 R22:Z22 R23:S23 T24:U24 AF30:AH31 AA26:AE26 AA27 AB28:AE28 AF29:AR29 J5:N5 O15 AI32:AR32 AI33:AL33 AL34:AN34 AN35:AP35 AP36:AR36 AS37:AW38 AW40:BC40 AX37:BC37 BD42:BF42 BG43" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2012,4 +2896,292 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F59D4D64CE5F8C4CA58525DF3DC0AFD5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="113e38f2615660614a99283ca940ebc7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c92308a8-1835-41e9-8926-04f7d96944eb" xmlns:ns4="e356df2a-e0c9-4065-84cd-66458133e470" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5e97994a6c3a355cf6b2ac1128788" ns3:_="" ns4:_="">
+    <xsd:import namespace="c92308a8-1835-41e9-8926-04f7d96944eb"/>
+    <xsd:import namespace="e356df2a-e0c9-4065-84cd-66458133e470"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c92308a8-1835-41e9-8926-04f7d96944eb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e356df2a-e0c9-4065-84cd-66458133e470" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c92308a8-1835-41e9-8926-04f7d96944eb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0283A91D-6870-4AE4-8B04-308DA8D187B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
+    <ds:schemaRef ds:uri="e356df2a-e0c9-4065-84cd-66458133e470"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F548E22-8B9B-46C1-AC83-52672928AD7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB3A5FF7-A6FB-4893-A259-58257F101003}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e356df2a-e0c9-4065-84cd-66458133e470"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F95A16-3EA3-41F6-B010-6382851905DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD943325-315F-4E87-A336-32C6459BBE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>dont know yet</t>
   </si>
@@ -176,28 +176,28 @@
     <t>1 week</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.1 Project Overview</t>
-  </si>
-  <si>
-    <t>1 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.2 Work Breakdown Structure</t>
+    <t xml:space="preserve">  1.1 Project Overview (develop project overview)</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.2 Work Breakdown Structure(formulate wbs)</t>
   </si>
   <si>
     <t>2 days</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.3 Activity Definition and Estimation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.4 Gantt Chart</t>
+    <t xml:space="preserve">  1.3 Activity Definition and Estimation(state activity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.4 Gantt Chart(derive gantt chart from wbs)</t>
   </si>
   <si>
     <t>2. Software Design Document</t>
   </si>
   <si>
-    <t>19 days</t>
+    <t>19 days?</t>
   </si>
   <si>
     <t xml:space="preserve">  2.1 System Vision Statement</t>
@@ -206,16 +206,16 @@
     <t>6 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.1.1 Background </t>
+    <t xml:space="preserve">    2.1.1 Background (explain the bckgrnd)</t>
   </si>
   <si>
     <t>2 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.1.2 Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.1.3 Benefits</t>
+    <t xml:space="preserve">    2.1.2 Overview(give overview of doc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1.3 Benefits(Benefits of the Softwre)</t>
   </si>
   <si>
     <t xml:space="preserve">  2.2 Requirements</t>
@@ -224,22 +224,19 @@
     <t>3 days</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.2.1 User Requirements</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2.2 Software Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2.3 Use Case Diagram</t>
+    <t xml:space="preserve">    2.2.1 User Requirements(List user reqs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.2 Software Requirements(List soft reqs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.3 Use Case Diagram(form UC diag)</t>
   </si>
   <si>
     <t>4 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.2.4 Use Cases</t>
+    <t xml:space="preserve">    2.2.4 Use Cases(develop use case)</t>
   </si>
   <si>
     <t xml:space="preserve">  2.3 Software Design and System Components </t>
@@ -257,13 +254,13 @@
     <t>9 days</t>
   </si>
   <si>
-    <t xml:space="preserve">       2.3.2.1 Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2.3.2.2 Data Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2.3.2.3 Detailed design</t>
+    <t xml:space="preserve">       2.3.2.1 Functions(List Funcs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.3.2.2 Data Structures(Specify data strctures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.3.2.3 Detailed design(make dtailed design)</t>
   </si>
   <si>
     <t>5 days</t>
@@ -272,10 +269,10 @@
     <t xml:space="preserve">  2.4 User Interface Design</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.4.1 Structural Design </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.4.2 Visual Design</t>
+    <t xml:space="preserve">    2.4.1 Structural Design (specify system env)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.4.2 Visual Design(formulate design elems)</t>
   </si>
   <si>
     <t>4 days</t>
@@ -290,22 +287,22 @@
     <t xml:space="preserve">  3.1 Design Implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">    3.1.1 UI Design</t>
+    <t xml:space="preserve">    3.1.1 UI Design(storyboard? )</t>
   </si>
   <si>
     <t xml:space="preserve">  3.2 Code Construction</t>
   </si>
   <si>
-    <t xml:space="preserve">    3.2.1 Landing Page Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.2 Matplotlib Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.3 Tkinter Code/wxPython</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.4 Pandas Code</t>
+    <t xml:space="preserve">    3.2.1 Landing Page Code(code the Landing page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.2 Matplotlib Code(code the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.3 Tkinter Code/wxPython(1day only)(build layout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.4 Pandas Code(code the)</t>
   </si>
   <si>
     <t>4 Software Testing Report</t>
@@ -314,16 +311,16 @@
     <t> </t>
   </si>
   <si>
-    <t xml:space="preserve">  4.1 Testing Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.2 Ongoing testing</t>
+    <t xml:space="preserve">  4.1 Testing Plan(formulate unit tests)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.2 Ongoing testing(Ongoing Testing)</t>
   </si>
   <si>
     <t>????</t>
   </si>
   <si>
-    <t xml:space="preserve">  4.3 User Manual</t>
+    <t xml:space="preserve">  4.3 User Manual(Create user MAnual)</t>
   </si>
   <si>
     <t>7 days</t>
@@ -332,10 +329,10 @@
     <t>5 Executive Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">  5.1 Analysis and Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5.2 Git_log</t>
+    <t xml:space="preserve">  5.1 Analysis and Comments(Analys and comments about the software )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.2 Git_log(Produce Git log report)</t>
   </si>
   <si>
     <t>1hr</t>
@@ -596,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -718,6 +715,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -776,7 +838,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,6 +968,93 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -917,33 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -967,11 +1089,11 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -984,16 +1106,15 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1057,15 +1178,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1083,16 +1205,15 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1170,6 +1291,20 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="9"/>
@@ -1183,35 +1318,22 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -1309,30 +1431,41 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1357,6 +1490,100 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
           <bgColor auto="1"/>
@@ -1370,6 +1597,92 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -1385,6 +1698,141 @@
       <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1412,6 +1860,132 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border>
@@ -1691,7 +2265,7 @@
   <dimension ref="A1:BO46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="BA13" sqref="BA13:BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1718,13 +2292,13 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1732,37 +2306,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="51"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="67"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="55"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
         <v>7</v>
@@ -1776,22 +2350,22 @@
       <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="1:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="63" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1818,12 +2392,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -2018,6 +2592,8 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -2038,7 +2614,7 @@
       <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
@@ -2054,8 +2630,8 @@
       <c r="G7" s="7">
         <v>0</v>
       </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
       <c r="L7" s="15"/>
       <c r="N7" s="15"/>
     </row>
@@ -2073,9 +2649,8 @@
       <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,10 +2667,10 @@
       <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="N9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="L9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
@@ -2111,24 +2686,25 @@
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
     </row>
     <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
@@ -2144,7 +2720,7 @@
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
@@ -2160,7 +2736,7 @@
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
@@ -2176,7 +2752,7 @@
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="M13" s="16"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -2192,7 +2768,7 @@
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="M14" s="16"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
@@ -2208,9 +2784,10 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
@@ -2219,132 +2796,137 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="25" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="25" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="25" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+    </row>
+    <row r="20" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
     </row>
-    <row r="21" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="25" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="46"/>
+    </row>
+    <row r="22" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
       <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
     </row>
-    <row r="23" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="25" t="s">
@@ -2355,13 +2937,15 @@
       <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-    </row>
-    <row r="24" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51"/>
+    </row>
+    <row r="24" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="25" t="s">
@@ -2372,116 +2956,123 @@
       <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-    </row>
-    <row r="25" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="50"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+    </row>
+    <row r="25" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-    </row>
-    <row r="26" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+    </row>
+    <row r="26" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-    </row>
-    <row r="27" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="AC26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="25" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="AA27" s="16"/>
-    </row>
-    <row r="28" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="46"/>
+    </row>
+    <row r="28" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-    </row>
-    <row r="29" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="AC28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
-      <c r="AO29" s="16"/>
-      <c r="AP29" s="16"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="16"/>
-    </row>
-    <row r="30" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+    </row>
+    <row r="30" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="25" t="s">
@@ -2492,14 +3083,14 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-    </row>
-    <row r="31" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+    </row>
+    <row r="31" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="25" t="s">
@@ -2510,58 +3101,59 @@
       <c r="G31" s="7">
         <v>0</v>
       </c>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-    </row>
-    <row r="32" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+    </row>
+    <row r="32" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7">
         <v>0</v>
       </c>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="16"/>
-    </row>
-    <row r="33" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+    </row>
+    <row r="33" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
         <v>0</v>
       </c>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-    </row>
-    <row r="34" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+    </row>
+    <row r="34" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="25" t="s">
@@ -2572,14 +3164,14 @@
       <c r="G34" s="7">
         <v>0</v>
       </c>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-    </row>
-    <row r="35" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+    </row>
+    <row r="35" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="25" t="s">
@@ -2590,14 +3182,12 @@
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-    </row>
-    <row r="36" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="55"/>
+    </row>
+    <row r="36" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>32</v>
@@ -2605,97 +3195,102 @@
       <c r="G36" s="7">
         <v>0</v>
       </c>
-      <c r="AP36" s="16"/>
-      <c r="AQ36" s="16"/>
-      <c r="AR36" s="16"/>
-    </row>
-    <row r="37" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+    </row>
+    <row r="37" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="G37" s="7">
         <v>0</v>
       </c>
-      <c r="AS37" s="16"/>
-      <c r="AT37" s="16"/>
-      <c r="AU37" s="16"/>
-      <c r="AV37" s="16"/>
-      <c r="AW37" s="16"/>
-      <c r="AX37" s="16"/>
-      <c r="AY37" s="16"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="16"/>
-      <c r="BB37" s="16"/>
-      <c r="BC37" s="16"/>
-    </row>
-    <row r="38" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
       </c>
-      <c r="AS38" s="16"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
-      <c r="AW38" s="16"/>
-    </row>
-    <row r="39" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="58"/>
+    </row>
+    <row r="39" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>65</v>
-      </c>
       <c r="G39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+    </row>
+    <row r="40" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>67</v>
-      </c>
       <c r="G40" s="7">
         <v>0</v>
       </c>
-      <c r="AW40" s="16"/>
-      <c r="AX40" s="16"/>
-      <c r="AY40" s="16"/>
-      <c r="AZ40" s="16"/>
-      <c r="BA40" s="16"/>
-      <c r="BB40" s="16"/>
-      <c r="BC40" s="16"/>
-    </row>
-    <row r="41" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+    </row>
+    <row r="41" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+    </row>
+    <row r="42" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>32</v>
@@ -2703,165 +3298,322 @@
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="BD42" s="16"/>
-      <c r="BE42" s="16"/>
-      <c r="BF42" s="16"/>
-    </row>
-    <row r="43" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="61"/>
+    </row>
+    <row r="43" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="62"/>
+      <c r="AE43" s="62"/>
+      <c r="AF43" s="62"/>
+      <c r="AG43" s="62"/>
+      <c r="AH43" s="62"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="62"/>
+      <c r="AK43" s="62"/>
+      <c r="AL43" s="62"/>
+      <c r="AM43" s="62"/>
+    </row>
+    <row r="44" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="62"/>
+      <c r="AH44" s="62"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="62"/>
+      <c r="AM44" s="62"/>
+    </row>
+    <row r="45" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG43" s="16"/>
-    </row>
-    <row r="44" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="G45" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G46" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="64" priority="144">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:BO5 J6:BO6 O7:BO9 K7 M7:M9 H7:H8 H9:I10 AC10:BO10 H11:K12 M11:BO12 H13:L15 N13:BO14 O16:BO16 H16:M16 H17:N17 P17:BO17 H18:O18 Q18:BO18 R19:BO19 AA20:BO20 H19:P21 R21:BO21 AA22:BO22 H22:Q23 T23:BO23 H24:S24 V24:BO24 AA25:BO25 H25:U25 K10 AF26:BO26 H26:Z27 AB27:BO27 H28:AA28 AF28:BO28 AS29:BO29 H29:AE31 AI30:BO31 P15:BO15 AS32:BO32 H32:AH33 AM33:BO33 H34:AK34 AO34:BO34 H35:AM35 AQ35:BO35 H36:AO36 AS36:BO36 H39:BO39 H37:AR38 AX38:BO38 H41:BO41 H40:AV40 BD40:BO40 BD37:BO37 H44:BO46 H42:BC42 BG42:BO42 H43:BF43 BH43:BO43">
-    <cfRule type="expression" dxfId="31" priority="25">
+  <conditionalFormatting sqref="O5:BO5 I6 K6:BO6 K7 M7:M9 O7:BO9 J8:K8 H9 K9 AD10:BO10 H10:J16 L11:BO14 O15:BO17 L16:N16 H17:K17 M17:N17 N18:BO18 H18:L19 O19:BO19 AA20:BO20 H20:M21 O21:BO21 AA22:BO22 H22:N23 Q23 S23:BO23 H24:O24 R24:BO24 AA25:BO25 H25:N29 AA26:AB28 P27:Z27 S28:Z28 AO28:BO28 AK28:AK33 AM28:AM34 O29:W29 AO29:AO35 AP29:AQ36 AS29:BO36 AR29:AR37 H30:W31 H32:Y32 AJ32 AF33:AJ33 H33:Z35 AD34:AL34 AB35:AN35 H36:AA36 AF36:AO36 H37:AQ37 AS37:AV39 AW37:BO40 AG38:AR39 H38:Z43 AJ40:AV40 AH41:BO41 AN42:BO44 H44 H45:BO46">
+    <cfRule type="expression" dxfId="63" priority="142">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="143">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="147">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="148">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="141">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="140">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="139">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:Z26">
+    <cfRule type="expression" dxfId="55" priority="76">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="73">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="74">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="52" priority="75">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="51" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="78">
+      <formula>T$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="77">
+      <formula>Plan</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="expression" dxfId="47" priority="99">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="102">
+      <formula>Y$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="101">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="41" priority="98">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="97">
+      <formula>PercentComplete</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22">
+    <cfRule type="expression" dxfId="39" priority="90">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="89">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="94">
+      <formula>Y$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="34" priority="92">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="91">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA39">
+    <cfRule type="expression" dxfId="31" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="27" priority="6">
+      <formula>AA$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA30:AJ31">
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>AA$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="16" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
-    <cfRule type="expression" dxfId="23" priority="17">
+  <conditionalFormatting sqref="AC28:AJ28">
+    <cfRule type="expression" dxfId="15" priority="58">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="64">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="59">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="60">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="61">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="62">
+      <formula>AC$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="63">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC26:BO27">
+    <cfRule type="expression" dxfId="7" priority="65">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="72">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="67">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="68">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="69">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="70">
+      <formula>AC$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="66">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="0" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>I$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>I$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -2869,8 +3621,8 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2 N7:N9 J9:J10 L7:L8" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 K9:L9 V25:Z25 J7:J8 I6:I7 K8 L10:AB10 L11:L12 M13:M15 N15:N16 O17 P18 Q19:Q21 R20:Z20 R22:Z22 R23:S23 T24:U24 AF30:AH31 AA26:AE26 AA27 AB28:AE28 AF29:AR29 J5:N5 O15 AI32:AR32 AI33:AL33 AL34:AN34 AN35:AP35 AP36:AR36 AS37:AW38 AW40:BC40 AX37:BC37 BD42:BF42 BG43" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2 N7:N9 J9 L7 L9" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 Z22 I9:L9 I7 I8:K8 H5:H8 R23 I5:N5 X20 Z20 AN35 AL34 AK32:AK33 X22" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
@@ -2899,6 +3651,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c92308a8-1835-41e9-8926-04f7d96944eb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F59D4D64CE5F8C4CA58525DF3DC0AFD5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="113e38f2615660614a99283ca940ebc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c92308a8-1835-41e9-8926-04f7d96944eb" xmlns:ns4="e356df2a-e0c9-4065-84cd-66458133e470" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5e97994a6c3a355cf6b2ac1128788" ns3:_="" ns4:_="">
     <xsd:import namespace="c92308a8-1835-41e9-8926-04f7d96944eb"/>
@@ -3119,24 +3888,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB3A5FF7-A6FB-4893-A259-58257F101003}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e356df2a-e0c9-4065-84cd-66458133e470"/>
+    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c92308a8-1835-41e9-8926-04f7d96944eb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F548E22-8B9B-46C1-AC83-52672928AD7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0283A91D-6870-4AE4-8B04-308DA8D187B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3155,31 +3932,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F548E22-8B9B-46C1-AC83-52672928AD7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB3A5FF7-A6FB-4893-A259-58257F101003}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e356df2a-e0c9-4065-84cd-66458133e470"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD943325-315F-4E87-A336-32C6459BBE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32934B35-5089-450A-A6F3-D8E5A9341489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
-  <si>
-    <t>dont know yet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -287,42 +284,18 @@
     <t xml:space="preserve">  3.1 Design Implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">    3.1.1 UI Design(storyboard? )</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3.2 Code Construction</t>
   </si>
   <si>
-    <t xml:space="preserve">    3.2.1 Landing Page Code(code the Landing page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.2 Matplotlib Code(code the)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.3 Tkinter Code/wxPython(1day only)(build layout)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.4 Pandas Code(code the)</t>
-  </si>
-  <si>
     <t>4 Software Testing Report</t>
   </si>
   <si>
     <t> </t>
   </si>
   <si>
-    <t xml:space="preserve">  4.1 Testing Plan(formulate unit tests)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.2 Ongoing testing(Ongoing Testing)</t>
-  </si>
-  <si>
     <t>????</t>
   </si>
   <si>
-    <t xml:space="preserve">  4.3 User Manual(Create user MAnual)</t>
-  </si>
-  <si>
     <t>7 days</t>
   </si>
   <si>
@@ -339,13 +312,76 @@
   </si>
   <si>
     <t>Project Completion</t>
+  </si>
+  <si>
+    <t>AJJ BNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.1 Build the User Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.2 Place the Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.3 Add the Colours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.4 Build the Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.4 Build the Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.1 Coding: Matplotlib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.2 Coding: wxPython</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.3 Coding: Pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.3 Design Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.1 Coding: Landing Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.2 Coding: Suburn Listing Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.3 Coding: Price Chart Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.4 Coding: Search Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.5 Coding: Cleanliness Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.6 Coding: Display by Ratings Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.1 Document Test Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.2 Build Test Data based on test Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.3 Perform user acceptance testing procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.4 Perform user acceptance testing procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.5 Perform user acceptance testing procedures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -464,6 +500,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -838,7 +881,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,9 +990,6 @@
     <xf numFmtId="0" fontId="16" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1066,6 +1106,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2262,10 +2308,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO46"/>
+  <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BA13" sqref="BA13:BB13"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2283,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2292,54 +2338,54 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="65" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="69" t="s">
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
@@ -2350,26 +2396,26 @@
       <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="1:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="F3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="G3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -2392,12 +2438,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -2580,15 +2626,15 @@
       </c>
     </row>
     <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="40" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="6">
         <v>0</v>
       </c>
@@ -2603,11 +2649,11 @@
     <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -2619,11 +2665,11 @@
     <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2638,11 +2684,11 @@
     <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2656,11 +2702,11 @@
     <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2669,544 +2715,544 @@
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="L9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="L9" s="42"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="41" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="42" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
     </row>
     <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="47"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="46"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="46"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="46"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="46"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="L17" s="46"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="46"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="40" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="41" t="s">
-        <v>39</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
       <c r="X20" s="16"/>
       <c r="Z20" s="16"/>
     </row>
     <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="46"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
       <c r="X22" s="16"/>
       <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="50"/>
     </row>
     <row r="24" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="O24" s="50"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
     </row>
     <row r="25" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
     </row>
     <row r="26" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
       <c r="AC26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="O27" s="46"/>
+      <c r="O27" s="45"/>
     </row>
     <row r="28" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
       <c r="AC28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
     </row>
     <row r="30" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
     </row>
     <row r="31" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="34" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7">
         <v>0</v>
       </c>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
     </row>
     <row r="32" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
-      <c r="B32" s="33" t="s">
-        <v>55</v>
+      <c r="B32" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7">
         <v>0</v>
       </c>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="53"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
     </row>
     <row r="33" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="34" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
         <v>0</v>
       </c>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
     </row>
     <row r="34" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="34" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
         <v>0</v>
       </c>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
     </row>
     <row r="35" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="34" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="AA35" s="55"/>
+      <c r="AA35" s="54"/>
     </row>
     <row r="36" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="34" t="s">
-        <v>59</v>
+      <c r="B36" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
       </c>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
     </row>
     <row r="37" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="35" t="s">
-        <v>60</v>
+      <c r="B37" s="75" t="s">
+        <v>69</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -3214,179 +3260,237 @@
     </row>
     <row r="38" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="36" t="s">
-        <v>62</v>
+      <c r="B38" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
       </c>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="58"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
     </row>
     <row r="39" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="36" t="s">
-        <v>63</v>
+      <c r="B39" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
       </c>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
     </row>
     <row r="40" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
-      <c r="B40" s="36" t="s">
-        <v>65</v>
+      <c r="B40" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
       </c>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
-      <c r="B41" s="37" t="s">
-        <v>67</v>
+      <c r="B41" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
       </c>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
     </row>
     <row r="42" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="38" t="s">
-        <v>68</v>
+      <c r="B42" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="61"/>
-      <c r="AJ42" s="61"/>
-      <c r="AK42" s="61"/>
-      <c r="AL42" s="61"/>
-      <c r="AM42" s="61"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="60"/>
+      <c r="AJ42" s="60"/>
+      <c r="AK42" s="60"/>
+      <c r="AL42" s="60"/>
+      <c r="AM42" s="60"/>
     </row>
     <row r="43" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="38" t="s">
-        <v>69</v>
+      <c r="B43" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
       </c>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
     </row>
     <row r="44" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>61</v>
+      <c r="B44" s="75" t="s">
+        <v>76</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="61"/>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="61"/>
     </row>
     <row r="45" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
-        <v>71</v>
+      <c r="B45" s="75" t="s">
+        <v>77</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="75" t="s">
+        <v>78</v>
+      </c>
       <c r="G46" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3512,7 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:BO5 I6 K6:BO6 K7 M7:M9 O7:BO9 J8:K8 H9 K9 AD10:BO10 H10:J16 L11:BO14 O15:BO17 L16:N16 H17:K17 M17:N17 N18:BO18 H18:L19 O19:BO19 AA20:BO20 H20:M21 O21:BO21 AA22:BO22 H22:N23 Q23 S23:BO23 H24:O24 R24:BO24 AA25:BO25 H25:N29 AA26:AB28 P27:Z27 S28:Z28 AO28:BO28 AK28:AK33 AM28:AM34 O29:W29 AO29:AO35 AP29:AQ36 AS29:BO36 AR29:AR37 H30:W31 H32:Y32 AJ32 AF33:AJ33 H33:Z35 AD34:AL34 AB35:AN35 H36:AA36 AF36:AO36 H37:AQ37 AS37:AV39 AW37:BO40 AG38:AR39 H38:Z43 AJ40:AV40 AH41:BO41 AN42:BO44 H44 H45:BO46">
+  <conditionalFormatting sqref="O5:BO5 I6 K6:BO6 K7 M7:M9 O7:BO9 J8:K8 H9 K9 AD10:BO10 H10:J16 L11:BO14 O15:BO17 L16:N16 H17:K17 M17:N17 N18:BO18 H18:L19 O19:BO19 AA20:BO20 H20:M21 O21:BO21 AA22:BO22 H22:N23 Q23 S23:BO23 H24:O24 R24:BO24 AA25:BO25 H25:N29 AA26:AB28 P27:Z27 S28:Z28 AO28:BO28 AK28:AK33 AM28:AM34 O29:W29 AO29:AO35 AP29:AQ36 AS29:BO36 AR29:AR37 H30:W31 H32:Y32 AJ32 AF33:AJ33 H33:Z35 AD34:AL34 AB35:AN35 H36:AA36 AF36:AO36 H37:AQ37 AS37:AV39 AW37:BO40 AG38:AR39 H38:Z43 AJ40:AV40 AH41:BO41 AN42:BO44 H44 H45:BO57">
     <cfRule type="expression" dxfId="63" priority="142">
       <formula>Plan</formula>
     </cfRule>
@@ -3893,14 +3997,14 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="e356df2a-e0c9-4065-84cd-66458133e470"/>
-    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26821"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/jonas_sajonas_griffithuni_edu_au/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32934B35-5089-450A-A6F3-D8E5A9341489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F78A55B-5F21-4FAF-ACBE-BABDF47FBB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
@@ -51,7 +52,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>AJJ BNB</t>
+  </si>
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -152,7 +156,7 @@
     <t>PLAN START</t>
   </si>
   <si>
-    <t>PLAN DURATION</t>
+    <t>PLAN DURATION in Days</t>
   </si>
   <si>
     <t>ACTUAL START</t>
@@ -170,224 +174,189 @@
     <t>1. Project Plan</t>
   </si>
   <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.1 Project Overview (develop project overview)</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.2 Work Breakdown Structure(formulate wbs)</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.3 Activity Definition and Estimation(state activity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.4 Gantt Chart(derive gantt chart from wbs)</t>
+    <t xml:space="preserve">  1.1 Project Overview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.2 Work Breakdown Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.3 Activity Definition and Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.4 Gantt Chart</t>
   </si>
   <si>
     <t>2. Software Design Document</t>
   </si>
   <si>
-    <t>19 days?</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2.1 System Vision Statement</t>
   </si>
   <si>
-    <t>6 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.1.1 Background (explain the bckgrnd)</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.1.2 Overview(give overview of doc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.1.3 Benefits(Benefits of the Softwre)</t>
+    <t xml:space="preserve">    2.1.1 Background </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1.2 Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1.3 Benefits</t>
   </si>
   <si>
     <t xml:space="preserve">  2.2 Requirements</t>
   </si>
   <si>
-    <t>3 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2.1 User Requirements(List user reqs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2.2 Software Requirements(List soft reqs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2.3 Use Case Diagram(form UC diag)</t>
-  </si>
-  <si>
-    <t>4 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2.4 Use Cases(develop use case)</t>
+    <t xml:space="preserve">    2.2.1 User Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.2 Software Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.3 Use Case Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2.4 Use Cases</t>
   </si>
   <si>
     <t xml:space="preserve">  2.3 Software Design and System Components </t>
   </si>
   <si>
-    <t>10 days</t>
-  </si>
-  <si>
     <t xml:space="preserve">    2.3.1 Software Design</t>
   </si>
   <si>
     <t xml:space="preserve">    2.3.2 System Components</t>
   </si>
   <si>
-    <t>9 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2.3.2.1 Functions(List Funcs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2.3.2.2 Data Structures(Specify data strctures)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2.3.2.3 Detailed design(make dtailed design)</t>
-  </si>
-  <si>
-    <t>5 days</t>
+    <t xml:space="preserve">       2.3.2.1 Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.3.2.2 Data Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.3.2.3 Detailed design</t>
   </si>
   <si>
     <t xml:space="preserve">  2.4 User Interface Design</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.4.1 Structural Design (specify system env)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.4.2 Visual Design(formulate design elems)</t>
-  </si>
-  <si>
-    <t>4 days</t>
+    <t xml:space="preserve">    2.4.1 Structural Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.4.2 Visual Design</t>
   </si>
   <si>
     <t>3 Software Implementation</t>
   </si>
   <si>
-    <t>13 days</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3.1 Design Implementation</t>
   </si>
   <si>
+    <t xml:space="preserve">    3.1.1 Build the User Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.2 Place the Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.3 Add the Colours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.4 Build the Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1.4 Build the Logo</t>
+  </si>
+  <si>
     <t xml:space="preserve">  3.2 Code Construction</t>
   </si>
   <si>
+    <t xml:space="preserve">    3.2.1 Coding: Matplotlib</t>
+  </si>
+  <si>
+    <t> 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.2 Coding: wxPython</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2.3 Coding: Pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.3 Design Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.1 Coding: Landing Page</t>
+  </si>
+  <si>
+    <t> 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.2 Coding: Suburn Listing Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.3 Coding: Price Chart Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.4 Coding: Search Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.5 Coding: Cleanliness Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3.6 Coding: Display by Ratings Page</t>
+  </si>
+  <si>
     <t>4 Software Testing Report</t>
   </si>
   <si>
+    <t xml:space="preserve">  4.1 Testing Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1.1 Document Test Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1.2 Build Test Data based on test Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1.3 Perform user acceptance testing procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1.4 Write Reports of Test Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.2 Build: User Manual</t>
+  </si>
+  <si>
+    <t>5 Executive Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.1 Analysis and Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.2 Git_log</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>5 Executive Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5.1 Analysis and Comments(Analys and comments about the software )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5.2 Git_log(Produce Git log report)</t>
-  </si>
-  <si>
-    <t>1hr</t>
-  </si>
-  <si>
     <t>Project Completion</t>
-  </si>
-  <si>
-    <t>AJJ BNB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1.1 Build the User Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1.2 Place the Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1.3 Add the Colours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1.4 Build the Layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1.4 Build the Logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.1 Coding: Matplotlib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.2 Coding: wxPython</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2.3 Coding: Pandas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.3 Design Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.3.1 Coding: Landing Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.3.2 Coding: Suburn Listing Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.3.3 Coding: Price Chart Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.3.4 Coding: Search Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.3.5 Coding: Cleanliness Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.3.6 Coding: Display by Ratings Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.1 Document Test Cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.2 Build Test Data based on test Cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.3 Perform user acceptance testing procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.4 Perform user acceptance testing procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.5 Perform user acceptance testing procedures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -508,8 +477,41 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,12 +633,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAB8CA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -800,15 +808,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color theme="0"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color theme="0"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thick">
         <color theme="0"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -820,96 +846,125 @@
         <color theme="0"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -918,13 +973,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -942,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,172 +1006,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - Accent4" xfId="19" builtinId="43"/>
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1135,7 +1224,21 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1148,19 +1251,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1224,16 +1314,15 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1251,15 +1340,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1337,20 +1427,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="9"/>
@@ -1364,22 +1440,35 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <border>
@@ -1477,41 +1566,30 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1536,30 +1614,41 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1577,9 +1666,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -1604,41 +1693,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1663,16 +1727,54 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1690,67 +1792,30 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1775,30 +1840,28 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1816,15 +1879,56 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1849,30 +1953,28 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1906,132 +2008,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border>
@@ -2071,10 +2047,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2308,16 +2280,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO57"/>
+  <dimension ref="A1:BO58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AD62" sqref="AD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="60" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
@@ -2327,9 +2299,9 @@
     <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="13" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2337,55 +2309,55 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="K2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="66"/>
+      <c r="Q2" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="78"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
+      <c r="V2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="82"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
+      <c r="AA2" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="82"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
@@ -2395,27 +2367,27 @@
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
     </row>
-    <row r="3" spans="1:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="74" t="s">
+    <row r="3" spans="1:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+      <c r="B3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="D3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="84" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="85" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -2437,32 +2409,32 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="3">
+    <row r="4" spans="1:67" ht="15.75" customHeight="1">
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="65">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="65">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="65">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="65">
         <v>4</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="65">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="65">
         <v>6</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="65">
         <v>7</v>
       </c>
       <c r="O4" s="3">
@@ -2486,7 +2458,7 @@
       <c r="U4" s="3">
         <v>14</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="1">
         <v>15</v>
       </c>
       <c r="W4" s="3">
@@ -2625,51 +2597,71 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
-        <v>14</v>
+    <row r="5" spans="1:67" ht="30" customHeight="1" thickBot="1">
+      <c r="B5" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="39" t="s">
-        <v>15</v>
+      <c r="D5" s="35">
+        <v>7</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+    </row>
+    <row r="6" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="25" t="s">
-        <v>17</v>
+      <c r="D6" s="25">
+        <v>1</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="64"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="19"/>
+    </row>
+    <row r="7" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="27" t="s">
-        <v>18</v>
+      <c r="B7" s="54" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="25" t="s">
-        <v>19</v>
+      <c r="D7" s="25">
+        <v>2</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2678,820 +2670,1072 @@
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="L7" s="15"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="19"/>
+    </row>
+    <row r="8" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="27" t="s">
-        <v>20</v>
+      <c r="B8" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="25" t="s">
-        <v>19</v>
+      <c r="D8" s="25">
+        <v>2</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="16"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="19"/>
+    </row>
+    <row r="9" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="27" t="s">
-        <v>21</v>
+      <c r="B9" s="54" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="25" t="s">
-        <v>19</v>
+      <c r="D9" s="25">
+        <v>2</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="L9" s="42"/>
-      <c r="N9" s="42"/>
-    </row>
-    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+    </row>
+    <row r="10" spans="1:67" ht="30" customHeight="1" thickTop="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="28" t="s">
-        <v>22</v>
+      <c r="B10" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="D10" s="46"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-    </row>
-    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="38"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+    </row>
+    <row r="11" spans="1:67" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="29" t="s">
-        <v>24</v>
+      <c r="B11" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="46"/>
-    </row>
-    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="30" t="s">
-        <v>26</v>
+      <c r="B12" s="53" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="25" t="s">
-        <v>27</v>
+      <c r="D12" s="25">
+        <v>1</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="45"/>
-    </row>
-    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="64"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="19"/>
+    </row>
+    <row r="13" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="30" t="s">
-        <v>28</v>
+      <c r="B13" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="25" t="s">
-        <v>27</v>
+      <c r="D13" s="25">
+        <v>1</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="16"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="19"/>
+    </row>
+    <row r="14" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="25"/>
-      <c r="B14" s="30" t="s">
-        <v>29</v>
+      <c r="B14" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="25" t="s">
-        <v>27</v>
+      <c r="D14" s="25">
+        <v>1</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="68"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="29" t="s">
-        <v>30</v>
+      <c r="B15" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="25" t="s">
-        <v>31</v>
-      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-    </row>
-    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="1:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="30" t="s">
-        <v>32</v>
+      <c r="B16" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="25" t="s">
-        <v>17</v>
+      <c r="D16" s="25">
+        <v>1</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:34" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="25"/>
-      <c r="B17" s="30" t="s">
-        <v>33</v>
+      <c r="B17" s="53" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="25" t="s">
-        <v>17</v>
+      <c r="D17" s="25">
+        <v>1</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="L17" s="45"/>
-    </row>
-    <row r="18" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:34" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="30" t="s">
-        <v>34</v>
+      <c r="B18" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="25" t="s">
-        <v>35</v>
+      <c r="D18" s="25">
+        <v>1</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:34" ht="30" customHeight="1" thickTop="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="30" t="s">
-        <v>36</v>
+      <c r="B19" s="53" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="25" t="s">
-        <v>17</v>
+      <c r="D19" s="25">
+        <v>1</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-    </row>
-    <row r="20" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:34" ht="30" customHeight="1">
       <c r="A20" s="26"/>
-      <c r="B20" s="29" t="s">
-        <v>37</v>
+      <c r="B20" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="D20" s="47"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="16"/>
-      <c r="Z20" s="16"/>
-    </row>
-    <row r="21" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+    </row>
+    <row r="21" spans="1:34" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="25"/>
-      <c r="B21" s="30" t="s">
-        <v>39</v>
+      <c r="B21" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="25" t="s">
-        <v>17</v>
+      <c r="D21" s="25">
+        <v>1</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="45"/>
-    </row>
-    <row r="22" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="64"/>
+    </row>
+    <row r="22" spans="1:34" ht="30" customHeight="1" thickTop="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="30" t="s">
-        <v>40</v>
+      <c r="B22" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="16"/>
-      <c r="Z22" s="16"/>
-    </row>
-    <row r="23" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+    </row>
+    <row r="23" spans="1:34" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="31" t="s">
-        <v>42</v>
+      <c r="B23" s="52" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="25" t="s">
-        <v>19</v>
+      <c r="D23" s="25">
+        <v>4</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="50"/>
-    </row>
-    <row r="24" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+    </row>
+    <row r="24" spans="1:34" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="31" t="s">
-        <v>43</v>
+      <c r="B24" s="52" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="25" t="s">
-        <v>19</v>
+      <c r="D24" s="25">
+        <v>2</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="O24" s="49"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-    </row>
-    <row r="25" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:34" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="31" t="s">
-        <v>44</v>
+      <c r="B25" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="25" t="s">
-        <v>45</v>
+      <c r="D25" s="25">
+        <v>3</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-    </row>
-    <row r="26" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+    </row>
+    <row r="26" spans="1:34" ht="30" customHeight="1" thickTop="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="29" t="s">
-        <v>46</v>
+      <c r="B26" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="AC26" s="1"/>
-      <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="71"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+    </row>
+    <row r="27" spans="1:34" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="30" t="s">
-        <v>47</v>
+      <c r="B27" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="25" t="s">
-        <v>17</v>
+      <c r="D27" s="25">
+        <v>3</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="O27" s="45"/>
-    </row>
-    <row r="28" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+    </row>
+    <row r="28" spans="1:34" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="25"/>
-      <c r="B28" s="30" t="s">
-        <v>48</v>
+      <c r="B28" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="25" t="s">
-        <v>49</v>
+      <c r="D28" s="25">
+        <v>3</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="AC28" s="1"/>
-      <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:34" ht="30" customHeight="1" thickTop="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="32" t="s">
-        <v>50</v>
+      <c r="B29" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-    </row>
-    <row r="30" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="43"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+    </row>
+    <row r="30" spans="1:34" ht="30" customHeight="1">
       <c r="A30" s="26"/>
-      <c r="B30" s="33" t="s">
-        <v>52</v>
+      <c r="B30" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="25" t="s">
-        <v>31</v>
-      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-    </row>
-    <row r="31" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+    </row>
+    <row r="31" spans="1:34" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="25"/>
-      <c r="B31" s="34" t="s">
-        <v>64</v>
+      <c r="B31" s="51" t="s">
+        <v>41</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="25" t="s">
-        <v>31</v>
+      <c r="D31" s="25">
+        <v>3</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7">
         <v>0</v>
       </c>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-    </row>
-    <row r="32" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="58"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="1:34" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="34" t="s">
-        <v>65</v>
+      <c r="B32" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="25" t="s">
-        <v>38</v>
+      <c r="D32" s="25">
+        <v>1</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7">
         <v>0</v>
       </c>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-    </row>
-    <row r="33" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="15"/>
+    </row>
+    <row r="33" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="25"/>
-      <c r="B33" s="34" t="s">
-        <v>66</v>
+      <c r="B33" s="51" t="s">
+        <v>43</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="25" t="s">
-        <v>49</v>
+      <c r="D33" s="25">
+        <v>3</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
         <v>0</v>
       </c>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-    </row>
-    <row r="34" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="25"/>
-      <c r="B34" s="34" t="s">
-        <v>67</v>
+      <c r="B34" s="51" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="25" t="s">
-        <v>31</v>
+      <c r="D34" s="25">
+        <v>5</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
         <v>0</v>
       </c>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-    </row>
-    <row r="35" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+    </row>
+    <row r="35" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="25"/>
-      <c r="B35" s="34" t="s">
-        <v>68</v>
+      <c r="B35" s="51" t="s">
+        <v>45</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="25" t="s">
-        <v>31</v>
+      <c r="D35" s="25">
+        <v>2</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="AA35" s="54"/>
-    </row>
-    <row r="36" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="40"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+    </row>
+    <row r="36" spans="1:38" ht="30" customHeight="1" thickTop="1">
       <c r="A36" s="25"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+    </row>
+    <row r="37" spans="1:38" ht="30" customHeight="1" thickBot="1">
+      <c r="A37" s="26"/>
+      <c r="B37" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+    </row>
+    <row r="38" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="25">
+        <v>3</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+    </row>
+    <row r="39" spans="1:38" ht="30" customHeight="1" thickTop="1">
+      <c r="A39" s="25"/>
+      <c r="B39" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="25">
+        <v>3</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+    </row>
+    <row r="40" spans="1:38" ht="30" customHeight="1">
+      <c r="A40" s="25"/>
+      <c r="B40" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+    </row>
+    <row r="41" spans="1:38" ht="30" customHeight="1" thickBot="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-    </row>
-    <row r="37" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="75" t="s">
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="58"/>
+    </row>
+    <row r="42" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A42" s="25"/>
+      <c r="B42" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="25">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="15"/>
+    </row>
+    <row r="43" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="25">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="62"/>
+      <c r="AE43" s="15"/>
+    </row>
+    <row r="44" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B44" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="48">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="15"/>
+    </row>
+    <row r="45" spans="1:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B45" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="48">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="15"/>
+    </row>
+    <row r="46" spans="1:38" ht="30" customHeight="1" thickTop="1">
+      <c r="B46" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="48">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="59"/>
+      <c r="AH46" s="36"/>
+    </row>
+    <row r="47" spans="1:38" ht="30" customHeight="1">
+      <c r="B47" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+    </row>
+    <row r="48" spans="1:38" ht="30" customHeight="1">
+      <c r="B48" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="61"/>
+      <c r="AD48" s="60"/>
+      <c r="AE48" s="63"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="63"/>
+    </row>
+    <row r="49" spans="2:67" ht="30" customHeight="1" thickBot="1">
+      <c r="B49" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="48">
+        <v>5</v>
+      </c>
+      <c r="G49" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="58"/>
+    </row>
+    <row r="50" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B50" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="15"/>
+    </row>
+    <row r="51" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B51" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="50">
+        <v>2</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="15"/>
+    </row>
+    <row r="52" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B52" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="50">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="15"/>
+    </row>
+    <row r="53" spans="2:67" ht="30" customHeight="1" thickTop="1">
+      <c r="B53" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="50">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="36"/>
+    </row>
+    <row r="54" spans="2:67" ht="30" customHeight="1">
+      <c r="B54" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="45"/>
+      <c r="AH54" s="45"/>
+      <c r="AI54" s="45"/>
+      <c r="AJ54" s="45"/>
+      <c r="AK54" s="45"/>
+      <c r="AL54" s="45"/>
+      <c r="AM54" s="45"/>
+    </row>
+    <row r="55" spans="2:67" ht="30" customHeight="1" thickBot="1">
+      <c r="B55" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="50">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="58"/>
+    </row>
+    <row r="56" spans="2:67" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B56" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="50">
+        <v>0.125</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="15"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="15"/>
+      <c r="AX56" s="15"/>
+      <c r="AY56" s="15"/>
+      <c r="AZ56" s="15"/>
+      <c r="BA56" s="15"/>
+      <c r="BB56" s="15"/>
+      <c r="BC56" s="15"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="15"/>
+      <c r="BF56" s="15"/>
+      <c r="BG56" s="15"/>
+      <c r="BH56" s="15"/>
+      <c r="BI56" s="15"/>
+      <c r="BJ56" s="15"/>
+      <c r="BK56" s="15"/>
+      <c r="BL56" s="15"/>
+      <c r="BM56" s="15"/>
+      <c r="BN56" s="15"/>
+      <c r="BO56" s="15"/>
+    </row>
+    <row r="57" spans="2:67" ht="30" customHeight="1" thickTop="1">
+      <c r="B57" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="34" t="s">
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:67" ht="30" customHeight="1">
+      <c r="B58" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-    </row>
-    <row r="39" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
-    </row>
-    <row r="40" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="58"/>
-    </row>
-    <row r="41" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-    </row>
-    <row r="42" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="60"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="60"/>
-      <c r="AL42" s="60"/>
-      <c r="AM42" s="60"/>
-    </row>
-    <row r="43" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="61"/>
-      <c r="AE43" s="61"/>
-      <c r="AF43" s="61"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="61"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="61"/>
-    </row>
-    <row r="44" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="61"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
-      <c r="Z44" s="61"/>
-      <c r="AA44" s="61"/>
-      <c r="AB44" s="61"/>
-      <c r="AC44" s="61"/>
-      <c r="AD44" s="61"/>
-      <c r="AE44" s="61"/>
-      <c r="AF44" s="61"/>
-      <c r="AG44" s="61"/>
-      <c r="AH44" s="61"/>
-      <c r="AI44" s="61"/>
-      <c r="AJ44" s="61"/>
-      <c r="AK44" s="61"/>
-      <c r="AL44" s="61"/>
-      <c r="AM44" s="61"/>
-    </row>
-    <row r="45" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="74"/>
+      <c r="AA58" s="74"/>
+      <c r="AB58" s="74"/>
+      <c r="AC58" s="74"/>
+      <c r="AD58" s="74"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="74"/>
+      <c r="AI58" s="74"/>
+      <c r="AJ58" s="74"/>
+      <c r="AK58" s="74"/>
+      <c r="AL58" s="74"/>
+      <c r="AM58" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3507,229 +3751,204 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="64" priority="144">
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="W4:BO4 H4:U4">
+    <cfRule type="expression" dxfId="56" priority="320">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:BO5 I6 K6:BO6 K7 M7:M9 O7:BO9 J8:K8 H9 K9 AD10:BO10 H10:J16 L11:BO14 O15:BO17 L16:N16 H17:K17 M17:N17 N18:BO18 H18:L19 O19:BO19 AA20:BO20 H20:M21 O21:BO21 AA22:BO22 H22:N23 Q23 S23:BO23 H24:O24 R24:BO24 AA25:BO25 H25:N29 AA26:AB28 P27:Z27 S28:Z28 AO28:BO28 AK28:AK33 AM28:AM34 O29:W29 AO29:AO35 AP29:AQ36 AS29:BO36 AR29:AR37 H30:W31 H32:Y32 AJ32 AF33:AJ33 H33:Z35 AD34:AL34 AB35:AN35 H36:AA36 AF36:AO36 H37:AQ37 AS37:AV39 AW37:BO40 AG38:AR39 H38:Z43 AJ40:AV40 AH41:BO41 AN42:BO44 H44 H45:BO57">
-    <cfRule type="expression" dxfId="63" priority="142">
+  <conditionalFormatting sqref="AN5:BO25 AO28:BO28 AO29:AO35 AP29:AQ36 AS29:BO36 AR29:AR37 AS37:AV39 AW37:BO40 AN38:AR39 AN41:BO45 H9:I9 H8 AK6:AM9 AJ12:AM14 H16:H17 H22:J23 H26:J28 H24:N24 H25:P25 AA30:AM30 W31:AM31 X32:AM32 H34:S35 Y34:AM34 AB37:AQ37 AE38:AM38 AH39:AM39 AI46:BO46 AH45:AM45 AG44:AM44 AF43:AM43 AE42:AM42 AD41:AM41 AH36:AO36 AI29:AM29 H29:S30 H31:M31 P31:S31 AM52:BO52 AL51:BO51 AK50:BO50 AM48:BO48 H18:I21 AO47:BO47 AM47 W5:AM5 O5:T5 I11:T11 W10:AM11 T10 L15:T15 J16:T17 K19:T19 L18:T18 K21:T21 O23:T23 Q24:T24 T25 H32:T33 W35:AN35 W33:W34 T34 W36:X37 W38:AA38 W39:AD39 W46:AG46 W45:AF45 W44:AE44 W43:AD43 W42:AC42 W57:BO57 H57:T57 W52:AK52 W50:AI51 W55:AJ55 W53:AL53 W40:AB41 T20 T22 W15:AM28 N26:T28 W47:AD49 H36:T53 S14:T14 W14:AI14 AF13:AI13 AI12 AC6:AJ6 AH8:AJ8 AJ7 AI40:AV40 AA33:AM33 AN53:BO55 H55:T55 H54 AN58:BO58">
+    <cfRule type="expression" dxfId="55" priority="313">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="315">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="316">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="317">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="318">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="143">
+    <cfRule type="expression" dxfId="50" priority="319">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="147">
+    <cfRule type="expression" dxfId="49" priority="323">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="148">
+    <cfRule type="expression" dxfId="48" priority="324">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="141">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN26:BO27">
+    <cfRule type="expression" dxfId="47" priority="241">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="242">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="243">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="140">
+    <cfRule type="expression" dxfId="43" priority="245">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="246">
+      <formula>AN$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="247">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="248">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="39" priority="169">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="170">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="139">
+    <cfRule type="expression" dxfId="36" priority="172">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="173">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="174">
+      <formula>J$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="175">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="176">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ49">
+    <cfRule type="expression" dxfId="31" priority="333">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="334">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="137">
+    <cfRule type="expression" dxfId="29" priority="335">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="336">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="337">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="338">
+      <formula>AJ$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="339">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="340">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK49:BN49 AK55">
+    <cfRule type="expression" dxfId="23" priority="341">
       <formula>PercentComplete</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="22" priority="342">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="343">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="344">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="345">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="346">
+      <formula>AL$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="347">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="348">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:Z26">
-    <cfRule type="expression" dxfId="55" priority="76">
+  <conditionalFormatting sqref="O31 V5 V10:V11 V57 V32:V53 V14:V28 V55">
+    <cfRule type="expression" dxfId="15" priority="357">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="358">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="359">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="360">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="73">
+    <cfRule type="expression" dxfId="11" priority="361">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="362">
+      <formula>N$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="363">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="364">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5 U10:U11 U57 U32:U34 U14:U28 U36:U53 U55">
+    <cfRule type="expression" dxfId="7" priority="383">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="74">
+    <cfRule type="expression" dxfId="6" priority="384">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="75">
+    <cfRule type="expression" dxfId="5" priority="385">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="80">
+    <cfRule type="expression" dxfId="4" priority="386">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="387">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="388">
+      <formula>#REF!=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="389">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="390">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="79">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="78">
-      <formula>T$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="77">
-      <formula>Plan</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="expression" dxfId="47" priority="99">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="104">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="103">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="102">
-      <formula>Y$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="101">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="100">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="98">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="97">
-      <formula>PercentComplete</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
-    <cfRule type="expression" dxfId="39" priority="90">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="89">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="95">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="94">
-      <formula>Y$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="93">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="92">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="91">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="96">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA39">
-    <cfRule type="expression" dxfId="31" priority="3">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="8">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
-      <formula>AA$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA30:AJ31">
-    <cfRule type="expression" dxfId="23" priority="9">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>AA$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC28:AJ28">
-    <cfRule type="expression" dxfId="15" priority="58">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="64">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="59">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="60">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="61">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="62">
-      <formula>AC$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="63">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="57">
-      <formula>PercentComplete</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC26:BO27">
-    <cfRule type="expression" dxfId="7" priority="65">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="72">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="67">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="68">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="69">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70">
-      <formula>AC$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="66">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="71">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations xWindow="1101" yWindow="863" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2 N7:N9 J9 L7 L9" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 Z22 I9:L9 I7 I8:K8 H5:H8 R23 I5:N5 X20 Z20 AN35 AL34 AK32:AK33 X22" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2 AH46 T31:V31 W32 X33:X34 U34:W34 T34:T35 Y37:AA37 AB38:AD38 AE39:AG39 AJ50 AG45 AF44 AE43 AD42 AJ51:AK51 AK56:AL56 AC41 AL52 AN56:BO56 AE49:AI49 U35 Y33:Z33 AM53 AM55:AM56" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2 AN35 H6:H7 I7:I8 J8:J9 K9 J19 K27:M28 K18 H56:AI56 K23:N23 O24:P24 Q25:S25 H12:H14 J21 I16:I17" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2 AJ56 H58:AM58" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2 J7:AH7 I6:AA6 L9:AH9 AE12:AG12 I12:Q14 R12:AD13 K8:AF8" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2 AB6 AH12 R14 AE13 AG8 AI9:AJ9 AI7" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
@@ -3754,15 +3973,19 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c92308a8-1835-41e9-8926-04f7d96944eb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AABEDA-B1D9-48B1-9FE5-09F8762B2EBC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3771,7 +3994,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F59D4D64CE5F8C4CA58525DF3DC0AFD5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="113e38f2615660614a99283ca940ebc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c92308a8-1835-41e9-8926-04f7d96944eb" xmlns:ns4="e356df2a-e0c9-4065-84cd-66458133e470" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab5e97994a6c3a355cf6b2ac1128788" ns3:_="" ns4:_="">
     <xsd:import namespace="c92308a8-1835-41e9-8926-04f7d96944eb"/>
@@ -3992,52 +4215,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c92308a8-1835-41e9-8926-04f7d96944eb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB3A5FF7-A6FB-4893-A259-58257F101003}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e356df2a-e0c9-4065-84cd-66458133e470"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F548E22-8B9B-46C1-AC83-52672928AD7C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F548E22-8B9B-46C1-AC83-52672928AD7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0283A91D-6870-4AE4-8B04-308DA8D187B3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0283A91D-6870-4AE4-8B04-308DA8D187B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c92308a8-1835-41e9-8926-04f7d96944eb"/>
-    <ds:schemaRef ds:uri="e356df2a-e0c9-4065-84cd-66458133e470"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB3A5FF7-A6FB-4893-A259-58257F101003}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>